--- a/data/trans_camb/P38A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Estudios-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>-0.3079940337991527</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.106950034672216</v>
+        <v>-1.106950034672238</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.157122297618649</v>
+        <v>-4.287625314201724</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.436350007991496</v>
+        <v>-6.398483256986431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.622149854758457</v>
+        <v>-1.667240631859362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.997686290853963</v>
+        <v>-2.131614471344424</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.117627560782456</v>
+        <v>-1.963531696321898</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.072599476831058</v>
+        <v>-3.109902556740292</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.669444803778041</v>
+        <v>1.898602876618138</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8512799808722634</v>
+        <v>0.9788822586831989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.280523507892226</v>
+        <v>2.498770317205826</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.830760174364569</v>
+        <v>1.793386796152448</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.340068637283436</v>
+        <v>1.558919215768327</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4778867129376863</v>
+        <v>0.6459117830772011</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>-0.003319767924812951</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.01193145586018659</v>
+        <v>-0.01193145586018683</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04522383020222891</v>
+        <v>-0.04706850585878123</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.07076398524064209</v>
+        <v>-0.07028278969730821</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01704434573123399</v>
+        <v>-0.01775030699774614</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02114198748071193</v>
+        <v>-0.02259433492906055</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02266605957532</v>
+        <v>-0.021103610652839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03287521540626446</v>
+        <v>-0.03328641619143004</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01853885586751873</v>
+        <v>0.02109975199475975</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.009548043199885699</v>
+        <v>0.01047783647774152</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02429443433239016</v>
+        <v>0.02678306781906439</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01978024721176383</v>
+        <v>0.01930727937426543</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01451470896583245</v>
+        <v>0.01705580685786075</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005153599314321737</v>
+        <v>0.007191373925538861</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>1.573489628810265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.5999121275594987</v>
+        <v>-0.5999121275595209</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6897681631855779</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.89535799720015</v>
+        <v>-2.660223445995503</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.796678616129388</v>
+        <v>-4.695391687946596</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8449797783930886</v>
+        <v>-0.4228267448798524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.923810585751347</v>
+        <v>-2.678332499311246</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.190187949197054</v>
+        <v>-0.9996960037251711</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.069402026462138</v>
+        <v>-3.075270773294266</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.861390560311892</v>
+        <v>2.419479596280948</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8915613529525117</v>
+        <v>0.9324905988967167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.767334529610386</v>
+        <v>3.683011932654302</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.723597766042244</v>
+        <v>1.661661726362049</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.190381097737528</v>
+        <v>2.326504167410522</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6883057738620028</v>
+        <v>0.632457365844987</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>0.01822709801815767</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.006949303605881608</v>
+        <v>-0.006949303605881866</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00823798736749304</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0350420367883113</v>
+        <v>-0.0324451077868422</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05878770157861158</v>
+        <v>-0.05704829471811952</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.009655380540715523</v>
+        <v>-0.004664502976819378</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03303281830925282</v>
+        <v>-0.03071209981114737</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01399957554043184</v>
+        <v>-0.01183108520845706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03650362698730351</v>
+        <v>-0.03638810198312981</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02324928251336993</v>
+        <v>0.03024853097282518</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01119946555980142</v>
+        <v>0.01162522839541542</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04412307212338889</v>
+        <v>0.0431708343379433</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.02007394660408431</v>
+        <v>0.01940588984424731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02654366231362114</v>
+        <v>0.02793434578082821</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008159149726959802</v>
+        <v>0.007624383258613034</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>-5.463436428632074</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-1.469822089555894</v>
+        <v>-1.469822089555906</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-1.027412669863403</v>
@@ -944,7 +944,7 @@
         <v>-3.246575162002852</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.1246496861006086</v>
+        <v>-0.1246496861006419</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.645919571942819</v>
+        <v>-9.805389367435261</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.238012835244013</v>
+        <v>-5.327398238337391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.020621706133314</v>
+        <v>-5.019300416955286</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.384060885609755</v>
+        <v>-2.313760310253124</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.174613722930408</v>
+        <v>-6.199576120536572</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.891877936677623</v>
+        <v>-2.764859217803469</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.195236506558502</v>
+        <v>-1.021777769987313</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.248396791617371</v>
+        <v>2.406930660094349</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.538106309108836</v>
+        <v>3.114583429362043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.198461535828609</v>
+        <v>5.074695556654896</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.1013522673392066</v>
+        <v>-0.4518591986632762</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.941900098609353</v>
+        <v>2.446089924511404</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.06074908448213109</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.01634325711638048</v>
+        <v>-0.0163432571163806</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.01152034453206728</v>
@@ -1022,7 +1022,7 @@
         <v>-0.03624770030390448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.001391701790129896</v>
+        <v>-0.001391701790130268</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1046454495551376</v>
+        <v>-0.1068540902339745</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.05704333430017808</v>
+        <v>-0.05776391673376133</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05501220094090922</v>
+        <v>-0.05506924037746554</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02596157198283112</v>
+        <v>-0.02489527689212746</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06756626351201535</v>
+        <v>-0.0683954600497749</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03208848458950763</v>
+        <v>-0.03029554003667606</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.01311090406738651</v>
+        <v>-0.01204737560026021</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02550470481710732</v>
+        <v>0.02723570024392666</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.04105494909674526</v>
+        <v>0.03560032197845846</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.06003876717216966</v>
+        <v>0.05851791730584385</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.0010349023705671</v>
+        <v>-0.005676679319169979</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0334164028023544</v>
+        <v>0.02799361352269744</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-1.725903633398307</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-2.542761800357807</v>
+        <v>-2.542761800357818</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1691501731528322</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.66509888882224</v>
+        <v>-3.722520032563892</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.547174179586856</v>
+        <v>-4.713160778190741</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.175674416716058</v>
+        <v>-1.321397095107342</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.604378818178039</v>
+        <v>-2.815492824921757</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.803626302626542</v>
+        <v>-1.888854455054578</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.148677147855822</v>
+        <v>-3.081276516064437</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02594301217547965</v>
+        <v>0.02019849507549779</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.3753466604394034</v>
+        <v>-0.713538415910799</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.558182343608223</v>
+        <v>1.538635019301356</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2720223434780668</v>
+        <v>0.3586017072453552</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.440287773370703</v>
+        <v>0.3815636518671439</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.5176401341450292</v>
+        <v>-0.5622715857592342</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.02023832186750369</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.02981697862626734</v>
+        <v>-0.02981697862626747</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.001886707207849669</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04269099898150368</v>
+        <v>-0.04360326329774623</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05304268433476939</v>
+        <v>-0.05512289409193481</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.01305277326975912</v>
+        <v>-0.01465362214196407</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02881158784595532</v>
+        <v>-0.03106066344769343</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02046566268672664</v>
+        <v>-0.02140635403111306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03571868215359671</v>
+        <v>-0.03493241143087127</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.0001138354867025994</v>
+        <v>0.0001601499513579559</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.004582606456197211</v>
+        <v>-0.008668053212921885</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.01751826229281049</v>
+        <v>0.01727670340610319</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.003026408572718142</v>
+        <v>0.004031539048548141</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.005100053914699879</v>
+        <v>0.004396062037123339</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.005973063851129609</v>
+        <v>-0.006511708168458403</v>
       </c>
     </row>
     <row r="28">
